--- a/freq_shift_results/Summary.xlsx
+++ b/freq_shift_results/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Craig\Documents\GitHub\pitch-sensing\freq_shift_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9A22CC-BD58-4696-A3CA-AE7E38D12F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCC34C3-A157-4CAE-8361-52A712CEC210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{ECBBEDAC-FEB3-4580-8E7C-C172B6CE95E6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
   <si>
     <t>Latency</t>
   </si>
@@ -64,7 +64,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +77,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,20 +149,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -166,9 +171,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,23 +498,20 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="2" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -509,7 +520,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -520,7 +531,7 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -533,7 +544,7 @@
       <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
@@ -551,164 +562,164 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.9294520547945121E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.0191780821917782E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.3482758620689612E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.7517241379310272E-2</v>
+      <c r="B3" s="10">
+        <v>29.294520547945123</v>
+      </c>
+      <c r="C3" s="10">
+        <v>30.191780821917781</v>
+      </c>
+      <c r="D3" s="10">
+        <v>13.482758620689612</v>
+      </c>
+      <c r="E3" s="10">
+        <v>27.517241379310271</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>-20.111368384770259</v>
+        <v>59.93123531919538</v>
       </c>
       <c r="I3" s="1">
-        <v>-20.611762527900243</v>
+        <v>58.476398743561617</v>
       </c>
       <c r="J3" s="1">
-        <v>-21.594904345419248</v>
+        <v>55.167463025602771</v>
       </c>
       <c r="K3" s="1">
-        <v>-22.796383103861004</v>
+        <v>52.328642732209403</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>9.8571428571428248E-3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.0653061224489804E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.2176870748299292E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.4041095890410964E-2</v>
+      <c r="B4" s="10">
+        <v>9.8571428571428239</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10.653061224489804</v>
+      </c>
+      <c r="D4" s="10">
+        <v>12.176870748299292</v>
+      </c>
+      <c r="E4" s="10">
+        <v>14.041095890410963</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>-82.056347817519452</v>
+        <v>116.99882380439482</v>
       </c>
       <c r="I4" s="1">
-        <v>-66.92750818721008</v>
+        <v>100.04930950119973</v>
       </c>
       <c r="J4" s="1">
-        <v>-50.395436150377776</v>
+        <v>80.201705267708491</v>
       </c>
       <c r="K4" s="1">
-        <v>-27.900943833672585</v>
+        <v>56.590921326703047</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.8510067114093877E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.9100671140939564E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.1006711409395895E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.5945945945945958E-2</v>
+      <c r="B5" s="10">
+        <v>28.510067114093875</v>
+      </c>
+      <c r="C5" s="10">
+        <v>29.100671140939564</v>
+      </c>
+      <c r="D5" s="10">
+        <v>31.006711409395894</v>
+      </c>
+      <c r="E5" s="10">
+        <v>25.945945945945958</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>-85.543630222027744</v>
+        <v>122.700431889824</v>
       </c>
       <c r="I5" s="1">
-        <v>-85.960997645138747</v>
+        <v>120.49747244996149</v>
       </c>
       <c r="J5" s="1">
-        <v>-76.105446579896991</v>
+        <v>103.08617328404965</v>
       </c>
       <c r="K5" s="1">
-        <v>-72.608813947335648</v>
+        <v>105.88830886775659</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.597972972972966E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.6567567567567533E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.7702702702702633E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.040540540540535E-2</v>
+      <c r="B6" s="10">
+        <v>15.979729729729661</v>
+      </c>
+      <c r="C6" s="10">
+        <v>16.567567567567533</v>
+      </c>
+      <c r="D6" s="10">
+        <v>17.702702702702634</v>
+      </c>
+      <c r="E6" s="10">
+        <v>20.40540540540535</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1">
-        <v>-116.89805434716864</v>
+        <v>148.48098500308322</v>
       </c>
       <c r="I6" s="1">
-        <v>-104.62417225846224</v>
+        <v>136.0280369574443</v>
       </c>
       <c r="J6" s="1">
-        <v>-104.92371023127103</v>
+        <v>132.71305131155921</v>
       </c>
       <c r="K6" s="1">
-        <v>-105.68412150317299</v>
+        <v>129.06478955524011</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>9.6959459459459146E-3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0067567567567576E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.1216216216216181E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.3918918918918926E-2</v>
+      <c r="B7" s="10">
+        <v>9.6959459459459154</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10.067567567567576</v>
+      </c>
+      <c r="D7" s="10">
+        <v>11.216216216216182</v>
+      </c>
+      <c r="E7" s="10">
+        <v>13.918918918918926</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="1">
-        <v>-95.944749726355624</v>
+        <v>135.16280232485994</v>
       </c>
       <c r="I7" s="1">
-        <v>-92.962787793726534</v>
+        <v>131.94998810010892</v>
       </c>
       <c r="J7" s="1">
-        <v>-105.70980167226136</v>
+        <v>139.08795642103925</v>
       </c>
       <c r="K7" s="1">
-        <v>-92.072815024701811</v>
+        <v>122.54957189615601</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -719,7 +730,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -737,16 +748,16 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="9">
         <v>0.68224299065420557</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>0.68224299065420557</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <v>0.67757009345794394</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="9">
         <v>0.67757009345794394</v>
       </c>
     </row>
@@ -754,16 +765,16 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="9">
         <v>0.68691588785046731</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>0.68691588785046731</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>0.68691588785046731</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="9">
         <v>0.68224299065420557</v>
       </c>
     </row>
@@ -771,16 +782,16 @@
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="9">
         <v>0.69626168224299068</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>0.69626168224299068</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="9">
         <v>0.69626168224299068</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <v>0.69158878504672905</v>
       </c>
     </row>
@@ -788,16 +799,16 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="9">
         <v>0.69158878504672905</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>0.69158878504672905</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>0.69158878504672905</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <v>0.69158878504672905</v>
       </c>
     </row>
@@ -805,16 +816,16 @@
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="9">
         <v>0.69158878504672905</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="9">
         <v>0.69158878504672905</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="9">
         <v>0.69158878504672905</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <v>0.69158878504672905</v>
       </c>
     </row>
@@ -828,19 +839,19 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:K7">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:E7">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -852,7 +863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E15">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
